--- a/Workplan/GanttChart.xlsx
+++ b/Workplan/GanttChart.xlsx
@@ -759,7 +759,7 @@
       <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1560,7 +1560,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1579,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -1598,7 +1598,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1660,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K15" s="15"/>
     </row>
@@ -1669,18 +1669,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="10">
-        <v>42506</v>
+        <v>42499</v>
       </c>
       <c r="C16" s="10">
         <v>42517</v>
       </c>
       <c r="D16" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
+      <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>

--- a/Workplan/GanttChart.xlsx
+++ b/Workplan/GanttChart.xlsx
@@ -756,10 +756,10 @@
   <dimension ref="A1:BO63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="J31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1826,7 +1826,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>

--- a/Workplan/GanttChart.xlsx
+++ b/Workplan/GanttChart.xlsx
@@ -416,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -451,6 +451,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,10 +759,10 @@
   <dimension ref="A1:BO63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="J31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="AX46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62:C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -768,7 +771,7 @@
     <col min="2" max="3" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1338,7 +1341,7 @@
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="24" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="11">
@@ -2135,14 +2138,14 @@
         <v>24</v>
       </c>
       <c r="B36" s="10">
-        <v>42661</v>
+        <v>42692</v>
       </c>
       <c r="C36" s="10">
         <v>42692</v>
       </c>
       <c r="D36" s="21">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>

--- a/Workplan/GanttChart.xlsx
+++ b/Workplan/GanttChart.xlsx
@@ -21,31 +21,6 @@
     <author>Caio_Otto</author>
   </authors>
   <commentList>
-    <comment ref="E23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Caio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I'd say that our work is 50% done now.
-Basically we have the information, just need to make it look cool.</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G23" authorId="0">
       <text>
         <r>
@@ -99,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Activity</t>
   </si>
@@ -290,9 +265,6 @@
     <t>Revised Work Plan to faculty advisors, client, and external advisors (May 20th)</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Final Work Plan to faculty advisors, client and external advisors (June 10th)</t>
   </si>
   <si>
@@ -311,14 +283,14 @@
     <t>Literature Review</t>
   </si>
   <si>
-    <t>One  of these weeks, TBD</t>
+    <t>Avance total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +330,14 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -416,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -450,10 +430,11 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,11 +739,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BO63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="AX46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62:C62"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -819,11 +800,14 @@
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:67">
+    <row r="6" spans="1:67" ht="18.75">
       <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6"/>
+      <c r="D6" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="F6" t="s">
         <v>40</v>
       </c>
@@ -1072,11 +1056,15 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:67">
+    <row r="7" spans="1:67" ht="18.75">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
+      <c r="D7" s="25">
+        <f>SUMPRODUCT(D9:D62,E9:E62)/SUM(D9:D62)</f>
+        <v>22.220064724919094</v>
+      </c>
       <c r="F7" t="s">
         <v>39</v>
       </c>
@@ -1336,12 +1324,12 @@
         <v>54</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="11">
@@ -1601,7 +1589,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1621,7 +1609,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1642,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>47</v>
@@ -1663,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K15" s="15"/>
     </row>
@@ -1682,7 +1670,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1703,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="7"/>
@@ -1725,7 +1713,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1746,7 +1734,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -1758,20 +1746,21 @@
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="B20" s="2">
+        <v>42528</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42529</v>
+      </c>
+      <c r="D20" s="21">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:30" ht="30">
       <c r="A21" s="9" t="s">
@@ -1795,7 +1784,7 @@
     </row>
     <row r="22" spans="1:30" ht="30">
       <c r="A22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="10">
         <v>42515</v>
@@ -1808,7 +1797,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1829,7 +1818,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1876,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O25" s="4"/>
     </row>
@@ -2084,27 +2073,25 @@
       <c r="A34" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="21" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="B34" s="2">
+        <v>42684</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42687</v>
+      </c>
+      <c r="D34" s="21">
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
       <c r="AF34" s="22"/>
-      <c r="AJ34" s="23" t="s">
-        <v>70</v>
-      </c>
+      <c r="AJ34" s="22"/>
       <c r="AK34" s="15"/>
-      <c r="AL34" s="15"/>
-      <c r="AM34" s="15"/>
-      <c r="AN34" s="15"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
     </row>
     <row r="35" spans="1:56" ht="30">
       <c r="A35" s="9" t="s">
@@ -2233,7 +2220,7 @@
     </row>
     <row r="41" spans="1:56" ht="30">
       <c r="A41" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="10">
         <v>42704</v>
@@ -2264,7 +2251,7 @@
     </row>
     <row r="42" spans="1:56">
       <c r="A42" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="21">
         <f t="shared" si="3"/>
@@ -2276,7 +2263,7 @@
     </row>
     <row r="43" spans="1:56">
       <c r="A43" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" s="10">
         <v>42781</v>
@@ -2708,7 +2695,7 @@
     </row>
     <row r="62" spans="1:65">
       <c r="A62" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="10">
         <v>42473</v>
@@ -2721,7 +2708,7 @@
         <v>371</v>
       </c>
       <c r="E62" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>

--- a/Workplan/GanttChart.xlsx
+++ b/Workplan/GanttChart.xlsx
@@ -740,10 +740,10 @@
   <dimension ref="A1:BO63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1063,7 +1063,7 @@
       <c r="B7" s="5"/>
       <c r="D7" s="25">
         <f>SUMPRODUCT(D9:D62,E9:E62)/SUM(D9:D62)</f>
-        <v>22.220064724919094</v>
+        <v>30.414239482200646</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1670,7 +1670,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -1691,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="7"/>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -1777,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="16"/>
@@ -1797,7 +1797,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1845,7 +1845,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O25" s="4"/>
     </row>
@@ -1884,7 +1884,7 @@
         <v>86</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>51</v>
@@ -1918,7 +1918,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -1950,7 +1950,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -1982,7 +1982,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="6"/>

--- a/Workplan/GanttChart.xlsx
+++ b/Workplan/GanttChart.xlsx
@@ -8,71 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Caio_Otto</author>
-  </authors>
-  <commentList>
-    <comment ref="G23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Caio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I think the website can be a group effort.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Caio:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
@@ -290,7 +230,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,21 +262,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -393,8 +330,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -433,11 +371,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -740,10 +679,10 @@
   <dimension ref="A1:BO63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="Z27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1062,8 +1001,8 @@
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="25">
-        <f>SUMPRODUCT(D9:D62,E9:E62)/SUM(D9:D62)</f>
-        <v>30.414239482200646</v>
+        <f>SUMPRODUCT(D9:D62,E9:E62)/SUM(D9:D62)/100</f>
+        <v>0.35702265372168285</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1918,7 +1857,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="3">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -1950,7 +1889,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="3">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -2781,30 +2720,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Workplan/GanttChart.xlsx
+++ b/Workplan/GanttChart.xlsx
@@ -679,10 +679,10 @@
   <dimension ref="A1:BO63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="Z27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="T29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1002,7 +1002,7 @@
       <c r="B7" s="5"/>
       <c r="D7" s="25">
         <f>SUMPRODUCT(D9:D62,E9:E62)/SUM(D9:D62)/100</f>
-        <v>0.35702265372168285</v>
+        <v>0.3964401294498382</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1823,7 +1823,7 @@
         <v>86</v>
       </c>
       <c r="E26" s="3">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>51</v>
@@ -1857,7 +1857,7 @@
         <v>86</v>
       </c>
       <c r="E27" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
@@ -1889,7 +1889,7 @@
         <v>86</v>
       </c>
       <c r="E28" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -1921,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="3">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="6"/>
@@ -1984,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD32" s="4"/>
     </row>

--- a/Workplan/GanttChart.xlsx
+++ b/Workplan/GanttChart.xlsx
@@ -679,10 +679,10 @@
   <dimension ref="A1:BO63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="T29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AD30" sqref="AD30"/>
+      <selection pane="bottomRight" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1002,7 +1002,7 @@
       <c r="B7" s="5"/>
       <c r="D7" s="25">
         <f>SUMPRODUCT(D9:D62,E9:E62)/SUM(D9:D62)/100</f>
-        <v>0.3964401294498382</v>
+        <v>0.44789644012944985</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1921,7 +1921,7 @@
         <v>42</v>
       </c>
       <c r="E29" s="3">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="W29" s="1"/>
       <c r="X29" s="6"/>
@@ -1946,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD30" s="4"/>
     </row>
@@ -1965,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD31" s="4"/>
     </row>
@@ -1984,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD32" s="4"/>
     </row>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
@@ -2023,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF34" s="22"/>
       <c r="AJ34" s="22"/>
@@ -2047,7 +2047,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL36" s="4"/>
     </row>
@@ -2389,7 +2389,7 @@
         <v>42837</v>
       </c>
       <c r="D51" s="21">
-        <f t="shared" si="3"/>
+        <f>C51-B51</f>
         <v>91</v>
       </c>
       <c r="E51" s="3">
